--- a/assignment1/HLR 1.xlsx
+++ b/assignment1/HLR 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\manvardhan-teting-\assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">Check Facebook Icon </t>
   </si>
   <si>
-    <t xml:space="preserve">its not working </t>
-  </si>
-  <si>
     <t xml:space="preserve">Check Linked In Icon </t>
   </si>
   <si>
@@ -195,6 +192,15 @@
   </si>
   <si>
     <t xml:space="preserve">Check Close Button  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on that button its working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on that button its not working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on that buton its working </t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -620,7 +626,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -631,7 +637,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -711,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,7 +728,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +777,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +818,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,10 +848,10 @@
         <v>502</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,10 +859,10 @@
         <v>600</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,10 +892,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -919,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
         <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -941,7 +947,7 @@
         <v>101</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -952,10 +958,10 @@
         <v>102</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +969,10 @@
         <v>103</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,7 +980,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
